--- a/medicine/Mort/Cimetière_Saint-Bernard_de_Vallauris/Cimetière_Saint-Bernard_de_Vallauris.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Bernard_de_Vallauris/Cimetière_Saint-Bernard_de_Vallauris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Bernard_de_Vallauris</t>
+          <t>Cimetière_Saint-Bernard_de_Vallauris</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Saint-Bernard est l'un des deux cimetières communaux de Vallauris dans le département des Alpes-Maritimes. Il est situé chemin de Saint-Bernard, au nord du col Saint-Bernard. L'autre cimetière est le Vieux cimetière situé montée Sainte-Anne, au sud du col Saint-Bernard, près du centre ancien de Vallauris[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Saint-Bernard est l'un des deux cimetières communaux de Vallauris dans le département des Alpes-Maritimes. Il est situé chemin de Saint-Bernard, au nord du col Saint-Bernard. L'autre cimetière est le Vieux cimetière situé montée Sainte-Anne, au sud du col Saint-Bernard, près du centre ancien de Vallauris.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Bernard_de_Vallauris</t>
+          <t>Cimetière_Saint-Bernard_de_Vallauris</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Bernard_de_Vallauris</t>
+          <t>Cimetière_Saint-Bernard_de_Vallauris</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Guy Breton (1919-2008), écrivain et journaliste.</t>
         </is>
